--- a/biology/Botanique/Leslie_Pedley/Leslie_Pedley.xlsx
+++ b/biology/Botanique/Leslie_Pedley/Leslie_Pedley.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Leslie Pedley (né en 1930)[1] est un botaniste australien qui s'est spécialisé dans le genre botanique Acacia. Il est connu pour avoir introduit le nom générique Racosperma, préfigurant une scission du genre Acacia entraînant la nécessité de renommer les espèces australiennes.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Leslie Pedley (né en 1930) est un botaniste australien qui s'est spécialisé dans le genre botanique Acacia. Il est connu pour avoir introduit le nom générique Racosperma, préfigurant une scission du genre Acacia entraînant la nécessité de renommer les espèces australiennes.
 </t>
         </is>
       </c>
